--- a/Descargas/R15_3º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
+++ b/Descargas/R15_3º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="B37" s="65">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38">
